--- a/data/trans_dic/P19C11_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 13,75</t>
+          <t>3,85; 14,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 9,76</t>
+          <t>3,78; 9,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 9,82</t>
+          <t>4,52; 9,93</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,92</t>
+          <t>2,63; 5,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,51</t>
+          <t>2,39; 4,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,67</t>
+          <t>2,78; 4,66</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,85</t>
+          <t>2,36; 4,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,1</t>
+          <t>2,98; 5,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 4,61</t>
+          <t>2,99; 4,56</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,95</t>
+          <t>3,52; 6,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,52</t>
+          <t>2,48; 5,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 5,67</t>
+          <t>3,43; 5,72</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,73</t>
+          <t>3,83; 6,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 5,38</t>
+          <t>3,29; 5,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,93; 5,54</t>
+          <t>3,9; 5,57</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,84; 5,28</t>
+          <t>3,88; 5,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,44; 4,61</t>
+          <t>3,47; 4,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,8; 4,72</t>
+          <t>3,82; 4,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C11_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P19C11_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 14,42</t>
+          <t>3,9; 13,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 9,93</t>
+          <t>3,68; 9,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 9,93</t>
+          <t>4,36; 9,82</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,86</t>
+          <t>2,61; 5,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,69</t>
+          <t>2,35; 4,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,66</t>
+          <t>2,81; 4,67</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,97</t>
+          <t>2,4; 4,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,03</t>
+          <t>3,04; 5,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 4,56</t>
+          <t>2,99; 4,61</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,94</t>
+          <t>3,44; 6,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,51</t>
+          <t>2,61; 5,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,72</t>
+          <t>3,33; 5,67</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,69</t>
+          <t>3,99; 6,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,2</t>
+          <t>3,33; 5,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,57</t>
+          <t>3,93; 5,54</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,88; 5,25</t>
+          <t>3,84; 5,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,47; 4,63</t>
+          <t>3,44; 4,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,82; 4,74</t>
+          <t>3,8; 4,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C11_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 13,75</t>
+          <t>3,21; 6,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 9,76</t>
+          <t>2,94; 5,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 9,82</t>
+          <t>3,37; 5,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,4%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,92</t>
+          <t>1,36; 4,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,51</t>
+          <t>3,16; 5,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,67</t>
+          <t>2,37; 4,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,85</t>
+          <t>3,3; 6,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,1</t>
+          <t>1,85; 5,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 4,61</t>
+          <t>2,68; 5,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,5%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,95</t>
+          <t>3,92; 6,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,52</t>
+          <t>2,94; 5,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 5,67</t>
+          <t>3,73; 5,4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,03%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,73</t>
+          <t>3,24; 4,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 5,38</t>
+          <t>3,12; 4,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,93; 5,54</t>
+          <t>3,42; 4,55</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,51%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,03%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>3,84; 5,28</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,44; 4,61</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,8; 4,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P19C11_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,37</t>
+          <t>3,31; 6,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,23</t>
+          <t>2,98; 5,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,23</t>
+          <t>3,43; 5,3</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,24</t>
+          <t>1,41; 4,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,29</t>
+          <t>3,13; 5,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 4,33</t>
+          <t>2,3; 4,27</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,72</t>
+          <t>3,38; 6,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,23</t>
+          <t>1,67; 5,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,38</t>
+          <t>2,53; 5,24</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 6,63</t>
+          <t>3,9; 6,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,19</t>
+          <t>3,04; 5,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,4</t>
+          <t>3,72; 5,37</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,94</t>
+          <t>3,32; 5,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,12; 4,46</t>
+          <t>3,18; 4,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,42; 4,55</t>
+          <t>3,41; 4,54</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28580</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25341</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>53921</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20254; 39333</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>19429; 32683</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>43376; 66900</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>33572</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>38086</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>71657</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16498; 49300</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>29513; 49428</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>48482; 90053</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33281</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>32924</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>66205</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23192; 46219</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15442; 46818</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>40714; 84276</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>45242</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>42562</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>87803</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>34748; 59137</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>32268; 55271</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>72742; 104919</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>140674</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>138912</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>279587</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>111338; 168678</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>113688; 160699</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>236545; 314939</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>